--- a/sources/fact_extraction_viewpoint/health-table10.xlsx
+++ b/sources/fact_extraction_viewpoint/health-table10.xlsx
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -130,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -140,26 +140,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +660,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="I1" s="12"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
